--- a/Test_plan_8100475716_silenceross/silence_ross_studio.xlsx
+++ b/Test_plan_8100475716_silenceross/silence_ross_studio.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Test_plan_8100475716_silenceross\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sbredufs1\Home$\8100475716\Desktop\study-docs\Test_plan_8100475716_silenceross\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TEST CASES list" sheetId="2" r:id="rId1"/>
@@ -20,29 +20,29 @@
   <definedNames>
     <definedName name="CRITICALITY" localSheetId="2">Rework1!$A$35:$A$39</definedName>
     <definedName name="CRITICALITY" localSheetId="3">Rework2!$A$35:$A$39</definedName>
-    <definedName name="CRITICALITY">'Test Report'!$A$62:$A$66</definedName>
-    <definedName name="k">'Test Report'!$F$62:$F$63</definedName>
-    <definedName name="ko">'Test Report'!$A$62:$A$66</definedName>
+    <definedName name="CRITICALITY">'Test Report'!$A$65:$A$69</definedName>
+    <definedName name="k">'Test Report'!$F$73:$F$74</definedName>
+    <definedName name="ko">'Test Report'!$A$65:$A$69</definedName>
     <definedName name="no" localSheetId="2">Rework1!#REF!</definedName>
     <definedName name="no" localSheetId="3">Rework2!#REF!</definedName>
     <definedName name="no">'Test Report'!#REF!</definedName>
     <definedName name="nono" localSheetId="2">Rework1!$F$35:$F$36</definedName>
     <definedName name="nono" localSheetId="3">Rework2!$F$35:$F$36</definedName>
-    <definedName name="nono">'Test Report'!$F$62:$F$63</definedName>
-    <definedName name="ok">'Test Report'!$G$62:$G$71</definedName>
+    <definedName name="nono">'Test Report'!$F$73:$F$74</definedName>
+    <definedName name="ok">'Test Report'!$G$73:$G$82</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Rework1!$8:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Rework2!$8:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Test Report'!$8:$8</definedName>
     <definedName name="testing" localSheetId="2">Rework1!$G$35:$G$44</definedName>
     <definedName name="testing" localSheetId="3">Rework2!$G$35:$G$44</definedName>
-    <definedName name="testing">'Test Report'!$G$62:$G$71</definedName>
+    <definedName name="testing">'Test Report'!$G$73:$G$82</definedName>
     <definedName name="yes" localSheetId="2">Rework1!#REF!</definedName>
     <definedName name="yes" localSheetId="3">Rework2!#REF!</definedName>
     <definedName name="yes">'Test Report'!#REF!</definedName>
     <definedName name="yes1">'Test Report'!#REF!</definedName>
     <definedName name="yes2" localSheetId="2">Rework1!$D$35:$D$36</definedName>
     <definedName name="yes2" localSheetId="3">Rework2!$D$35:$D$36</definedName>
-    <definedName name="yes2">'Test Report'!$D$62:$D$63</definedName>
+    <definedName name="yes2">'Test Report'!$D$73:$D$74</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="210">
   <si>
     <t>PRESENT:</t>
   </si>
@@ -555,9 +555,6 @@
     <t xml:space="preserve"> Login Form</t>
   </si>
   <si>
-    <t>already created an account using username email and password</t>
-  </si>
-  <si>
     <t>redirected to home page with user status</t>
   </si>
   <si>
@@ -948,29 +945,101 @@
     <t>check if signing in with a username that already exist display error</t>
   </si>
   <si>
-    <t>Login page</t>
-  </si>
-  <si>
-    <t>register page</t>
-  </si>
-  <si>
-    <t>catergory page</t>
-  </si>
-  <si>
-    <t>popular page</t>
-  </si>
-  <si>
-    <t>friend page</t>
-  </si>
-  <si>
-    <t>admin page</t>
+    <t>if the catergory doesn’t connect to database properly</t>
+  </si>
+  <si>
+    <t>be on the catergory page</t>
+  </si>
+  <si>
+    <t>An error message saying "sorry try again later"</t>
+  </si>
+  <si>
+    <t>Message appeared</t>
+  </si>
+  <si>
+    <t>if videos don’t display properly</t>
+  </si>
+  <si>
+    <t>Be on the popular video page</t>
+  </si>
+  <si>
+    <t>message saying "sorry try again later"</t>
+  </si>
+  <si>
+    <t>message was loaded</t>
+  </si>
+  <si>
+    <t>check if popular video page displays in different screen sizes</t>
+  </si>
+  <si>
+    <t>Inpect page and change different screen sizes</t>
+  </si>
+  <si>
+    <t>Everything on the page is viewable to the user</t>
+  </si>
+  <si>
+    <t>everything was visible</t>
+  </si>
+  <si>
+    <t>redirected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check the if the upload video tab works </t>
+  </si>
+  <si>
+    <t>upload form shows</t>
+  </si>
+  <si>
+    <t>form shows</t>
+  </si>
+  <si>
+    <t>check if edit profile tab works</t>
+  </si>
+  <si>
+    <t>edit profile form shows</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>register form</t>
+  </si>
+  <si>
+    <t>user functionality</t>
+  </si>
+  <si>
+    <t>admin functionality</t>
+  </si>
+  <si>
+    <t>check if you can connect to pages you arent allowed using url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be an anonymous user </t>
+  </si>
+  <si>
+    <t>nothing displays except for the guest view</t>
+  </si>
+  <si>
+    <t>guest view is showed</t>
+  </si>
+  <si>
+    <t>already created an account using username, email and password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1258,6 +1327,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1321,7 +1397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1828,12 +1904,218 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1841,7 +2123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2014,12 +2296,6 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2072,75 +2348,267 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2161,18 +2629,6 @@
     <xf numFmtId="0" fontId="32" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2194,175 +2650,16 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2371,24 +2668,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2401,30 +2680,155 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="92">
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -2603,41 +3007,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="4" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -2670,7 +3039,71 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
       </font>
     </dxf>
     <dxf>
@@ -2726,6 +3159,88 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <u/>
         <color theme="4"/>
       </font>
@@ -2772,6 +3287,38 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -2834,6 +3381,11 @@
         <b/>
         <i val="0"/>
         <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -3126,10 +3678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3140,11 +3692,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
     </row>
     <row r="2" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
@@ -3160,7 +3712,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32"/>
       <c r="B3" s="30" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C3" s="31"/>
     </row>
@@ -3169,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="21"/>
     </row>
@@ -3178,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="21"/>
     </row>
@@ -3187,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" s="21"/>
     </row>
@@ -3196,803 +3748,771 @@
         <v>4</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
-        <v>5</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
-        <v>6</v>
-      </c>
-      <c r="B9" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
-        <v>7</v>
-      </c>
-      <c r="B10" s="199"/>
+        <v>2</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>121</v>
+      </c>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
-        <v>8</v>
-      </c>
-      <c r="B11" s="200"/>
+        <v>3</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
-        <v>9</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="A12" s="229">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="231"/>
     </row>
     <row r="13" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
-        <v>10</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="31"/>
+      <c r="A13" s="228">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="230"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
-        <v>4</v>
-      </c>
-      <c r="B18" s="199" t="s">
-        <v>71</v>
+        <v>10</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="C18" s="21"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
-        <v>5</v>
-      </c>
-      <c r="B19" s="200" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="21"/>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="31"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
-        <v>8</v>
-      </c>
-      <c r="B22" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="C22" s="21"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
-        <v>9</v>
-      </c>
-      <c r="B23" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>92</v>
+      </c>
       <c r="C23" s="21"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
-        <v>10</v>
-      </c>
-      <c r="B24" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>96</v>
+      </c>
       <c r="C24" s="21"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="31"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>6</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
-        <v>1</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>85</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B26" s="21"/>
       <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
-        <v>2</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>81</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B27" s="21"/>
       <c r="C27" s="21"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
-        <v>3</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>91</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B28" s="21"/>
       <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
-        <v>4</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>93</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B29" s="21"/>
       <c r="C29" s="21"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
-        <v>5</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="21"/>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="31"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
-        <v>6</v>
-      </c>
-      <c r="B31" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>205</v>
+      </c>
       <c r="C31" s="21"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="31"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="29">
+        <v>6</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
-        <v>1</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>112</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B37" s="21"/>
       <c r="C37" s="21"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
-        <v>2</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>103</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B38" s="21"/>
       <c r="C38" s="21"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
-        <v>3</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>120</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B39" s="21"/>
       <c r="C39" s="21"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
-        <v>4</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>119</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B40" s="21"/>
       <c r="C40" s="21"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="29">
-        <v>5</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="31"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
-        <v>7</v>
-      </c>
-      <c r="B43" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="C43" s="21"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="29">
-        <v>8</v>
-      </c>
-      <c r="B44" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="C44" s="21"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
-        <v>9</v>
-      </c>
-      <c r="B45" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="B45" s="115" t="s">
+        <v>73</v>
+      </c>
       <c r="C45" s="21"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
-        <v>10</v>
-      </c>
-      <c r="B46" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="B46" s="114" t="s">
+        <v>70</v>
+      </c>
       <c r="C46" s="21"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" s="31"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="29">
+        <v>6</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="21"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="C48" s="21"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="29">
-        <v>5</v>
-      </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="31"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
-        <v>6</v>
-      </c>
-      <c r="B53" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>111</v>
+      </c>
       <c r="C53" s="21"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="29">
-        <v>7</v>
-      </c>
-      <c r="B54" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>102</v>
+      </c>
       <c r="C54" s="21"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="29">
-        <v>8</v>
-      </c>
-      <c r="B55" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>119</v>
+      </c>
       <c r="C55" s="21"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="29">
-        <v>9</v>
-      </c>
-      <c r="B56" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="C58" s="31"/>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="29">
+        <v>6</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="29">
-        <v>1</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>127</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B59" s="21"/>
       <c r="C59" s="21"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="29">
-        <v>5</v>
-      </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="32"/>
+      <c r="B63" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="31"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="29">
-        <v>6</v>
-      </c>
-      <c r="B64" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>162</v>
+      </c>
       <c r="C64" s="21"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
-        <v>7</v>
-      </c>
-      <c r="B65" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>166</v>
+      </c>
       <c r="C65" s="21"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
     </row>
-    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C69" s="31"/>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="29">
+        <v>6</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
-        <v>1</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>130</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B70" s="21"/>
       <c r="C70" s="21"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
-        <v>2</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>135</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B71" s="21"/>
       <c r="C71" s="21"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="29">
-        <v>3</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>139</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B72" s="21"/>
       <c r="C72" s="21"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="29">
-        <v>4</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>143</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B73" s="21"/>
       <c r="C73" s="21"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="29">
-        <v>5</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="21"/>
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="32"/>
+      <c r="B74" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="31"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
-        <v>6</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>151</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B75" s="21"/>
       <c r="C75" s="21"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="29">
-        <v>7</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>154</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B76" s="21"/>
       <c r="C76" s="21"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
     </row>
-    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
-      <c r="B80" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="C80" s="31"/>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="29">
+        <v>6</v>
+      </c>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="29">
-        <v>1</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>163</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B81" s="21"/>
       <c r="C81" s="21"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="29">
-        <v>2</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>167</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B82" s="21"/>
       <c r="C82" s="21"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="29">
-        <v>5</v>
-      </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
+    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="32"/>
+      <c r="B85" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="31"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
     </row>
-    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C91" s="31"/>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="29">
+        <v>6</v>
+      </c>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="29">
-        <v>5</v>
-      </c>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
+      <c r="A96" s="31"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="29">
-        <v>6</v>
-      </c>
+      <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="29">
-        <v>7</v>
-      </c>
+      <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="29">
-        <v>8</v>
-      </c>
+      <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="29">
-        <v>9</v>
-      </c>
+      <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="29">
-        <v>10</v>
-      </c>
+      <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
     </row>
-    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="32"/>
-      <c r="B102" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C102" s="31"/>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="21"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="29">
-        <v>1</v>
-      </c>
+      <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="29">
-        <v>2</v>
-      </c>
+      <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="29">
-        <v>3</v>
-      </c>
+      <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="29">
-        <v>4</v>
-      </c>
+      <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="29">
-        <v>5</v>
-      </c>
+      <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="29">
-        <v>6</v>
-      </c>
+      <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="29">
-        <v>7</v>
-      </c>
+      <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="29">
-        <v>8</v>
-      </c>
+      <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="29">
-        <v>9</v>
-      </c>
+      <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="29">
-        <v>10</v>
-      </c>
+      <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="31"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="21"/>
@@ -4188,91 +4708,6 @@
       <c r="A152" s="21"/>
       <c r="B152" s="21"/>
       <c r="C152" s="21"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="21"/>
-      <c r="B153" s="21"/>
-      <c r="C153" s="21"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="21"/>
-      <c r="B154" s="21"/>
-      <c r="C154" s="21"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="21"/>
-      <c r="B155" s="21"/>
-      <c r="C155" s="21"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="21"/>
-      <c r="B156" s="21"/>
-      <c r="C156" s="21"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="21"/>
-      <c r="B157" s="21"/>
-      <c r="C157" s="21"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="21"/>
-      <c r="B158" s="21"/>
-      <c r="C158" s="21"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="21"/>
-      <c r="B159" s="21"/>
-      <c r="C159" s="21"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="21"/>
-      <c r="B160" s="21"/>
-      <c r="C160" s="21"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="21"/>
-      <c r="B161" s="21"/>
-      <c r="C161" s="21"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="21"/>
-      <c r="B162" s="21"/>
-      <c r="C162" s="21"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="21"/>
-      <c r="B163" s="21"/>
-      <c r="C163" s="21"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="21"/>
-      <c r="B164" s="21"/>
-      <c r="C164" s="21"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="21"/>
-      <c r="B165" s="21"/>
-      <c r="C165" s="21"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="21"/>
-      <c r="B166" s="21"/>
-      <c r="C166" s="21"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="21"/>
-      <c r="B167" s="21"/>
-      <c r="C167" s="21"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="21"/>
-      <c r="B168" s="21"/>
-      <c r="C168" s="21"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="21"/>
-      <c r="B169" s="21"/>
-      <c r="C169" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4287,10 +4722,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4298,144 +4733,144 @@
     <col min="1" max="1" width="3.5703125" style="12" customWidth="1"/>
     <col min="2" max="3" width="28.28515625" customWidth="1"/>
     <col min="4" max="4" width="19" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="79" customWidth="1"/>
-    <col min="6" max="7" width="23.42578125" style="80" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="77" customWidth="1"/>
+    <col min="6" max="7" width="23.42578125" style="78" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" style="3" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" style="3"/>
     <col min="10" max="10" width="13.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="80" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="78" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="174"/>
     </row>
     <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="92">
+      <c r="B2" s="154"/>
+      <c r="C2" s="85">
         <v>42889</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="124" t="s">
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="122">
+      <c r="L2" s="180">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="116"/>
+      <c r="B3" s="154"/>
       <c r="C3" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="177"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="181"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="154"/>
+      <c r="C4" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="156"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="153" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="154"/>
+      <c r="C5" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="123"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="118"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="156"/>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="116"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="60"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="156"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="116"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="60"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="156"/>
     </row>
     <row r="8" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="137"/>
+      <c r="B8" s="212"/>
       <c r="C8" s="26" t="s">
         <v>25</v>
       </c>
@@ -4451,7 +4886,7 @@
       <c r="G8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="81" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -4468,26 +4903,26 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="211">
         <v>1</v>
       </c>
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="90" t="s">
         <v>57</v>
-      </c>
-      <c r="D9" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="99" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="99" t="s">
-        <v>58</v>
       </c>
       <c r="H9" s="38" t="s">
         <v>8</v>
@@ -4504,24 +4939,24 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="211">
         <v>2</v>
       </c>
-      <c r="B10" s="197"/>
-      <c r="C10" s="99" t="s">
+      <c r="B10" s="213"/>
+      <c r="C10" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="99" t="s">
+      <c r="F10" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="99" t="s">
-        <v>59</v>
+      <c r="G10" s="90" t="s">
+        <v>58</v>
       </c>
       <c r="H10" s="38" t="s">
         <v>8</v>
@@ -4532,35 +4967,35 @@
       </c>
       <c r="K10" s="65"/>
       <c r="L10" s="43" t="str">
-        <f t="shared" ref="L10:L31" si="0">IF(I10&lt;&gt;"",HYPERLINK("[Test Report Template Functionality.xlsx]Rework1!b9","Re-work Schedule"),HYPERLINK("", "Not Required" ))</f>
+        <f t="shared" ref="L10:L33" si="0">IF(I10&lt;&gt;"",HYPERLINK("[Test Report Template Functionality.xlsx]Rework1!b9","Re-work Schedule"),HYPERLINK("", "Not Required" ))</f>
         <v>Not Required</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="A11" s="211">
         <v>3</v>
       </c>
-      <c r="B11" s="197"/>
-      <c r="C11" s="197" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="197" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="197" t="s">
+      <c r="B11" s="213"/>
+      <c r="C11" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="197" t="s">
+      <c r="D11" s="170" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="197" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="152" t="s">
+      <c r="F11" s="170" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="170" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="149" t="s">
+      <c r="I11" s="198"/>
+      <c r="J11" s="140" t="s">
         <v>5</v>
       </c>
       <c r="K11" s="65"/>
@@ -4570,18 +5005,18 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+      <c r="A12" s="211">
         <v>4</v>
       </c>
-      <c r="B12" s="197"/>
-      <c r="C12" s="197"/>
-      <c r="D12" s="197"/>
-      <c r="E12" s="197"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="197"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="150"/>
+      <c r="B12" s="213"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="141"/>
       <c r="K12" s="65"/>
       <c r="L12" s="43" t="str">
         <f t="shared" si="0"/>
@@ -4590,1436 +5025,1653 @@
       <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="211">
         <v>5</v>
       </c>
-      <c r="B13" s="197"/>
-      <c r="C13" s="197"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="197"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="151"/>
+      <c r="B13" s="213"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="142"/>
       <c r="K13" s="65"/>
       <c r="L13" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+    <row r="14" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="211">
         <v>6</v>
       </c>
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="214" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="203" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="210" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="210" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="159" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="152" t="s">
+      <c r="G14" s="106" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" s="134" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="149" t="s">
+      <c r="J14" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="65"/>
-      <c r="L14" s="43" t="str">
+      <c r="K14" s="208"/>
+      <c r="L14" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+    <row r="15" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="211">
         <v>7</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="138" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="140" t="s">
+      <c r="B15" s="214"/>
+      <c r="C15" s="143" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="142" t="s">
+      <c r="E15" s="145" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="142" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="159"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="43" t="str">
+      <c r="G15" s="147" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="135"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="208"/>
+      <c r="L15" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+    <row r="16" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="211">
         <v>8</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="43" t="str">
+      <c r="B16" s="214"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="204"/>
+      <c r="L16" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="139" t="s">
+    <row r="17" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="211"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="241" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="161" t="s">
+      <c r="F17" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="144" t="s">
+      <c r="G17" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="152" t="s">
+      <c r="H17" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="149" t="s">
+      <c r="I17" s="198"/>
+      <c r="J17" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="67"/>
-      <c r="L17" s="43" t="str">
+      <c r="K17" s="204"/>
+      <c r="L17" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="43" t="str">
+    <row r="18" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="211"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="204"/>
+      <c r="L18" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="43" t="str">
+    <row r="19" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="211"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="243"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="204"/>
+      <c r="L19" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="138" t="s">
+    <row r="20" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="211"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="143" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="142" t="s">
+      <c r="F20" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="152" t="s">
+      <c r="G20" s="145" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="149" t="s">
+      <c r="I20" s="198"/>
+      <c r="J20" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="67"/>
-      <c r="L20" s="43" t="str">
+      <c r="K20" s="204"/>
+      <c r="L20" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="43" t="str">
+    <row r="21" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="211"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="204"/>
+      <c r="L21" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="87" t="s">
+    <row r="22" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="211"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="203" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="207" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="86" t="s">
+      <c r="F22" s="207" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="154"/>
+      <c r="G22" s="207" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="136"/>
       <c r="I22" s="10"/>
       <c r="J22" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="65"/>
-      <c r="L22" s="43" t="str">
+      <c r="K22" s="208"/>
+      <c r="L22" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="145" t="s">
+    <row r="23" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="211"/>
+      <c r="B23" s="214"/>
+      <c r="C23" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="156" t="s">
+      <c r="F23" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="156" t="s">
+      <c r="G23" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="156" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="156" t="s">
+      <c r="H23" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="I23" s="198"/>
       <c r="J23" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="65"/>
-      <c r="L23" s="43" t="str">
+      <c r="K23" s="208"/>
+      <c r="L23" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44">
+    <row r="24" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="211">
         <v>9</v>
       </c>
-      <c r="B24" s="155"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="10"/>
+      <c r="B24" s="214"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="233"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="200"/>
       <c r="J24" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="65"/>
-      <c r="L24" s="43" t="str">
+      <c r="K24" s="208"/>
+      <c r="L24" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44">
+    <row r="25" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="211">
         <v>10</v>
       </c>
-      <c r="B25" s="172" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="88" t="s">
+      <c r="B25" s="225" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="232" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="151" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="236" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="240" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="238" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="198"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="234"/>
+      <c r="L25" s="205"/>
+    </row>
+    <row r="26" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="211">
+        <v>11</v>
+      </c>
+      <c r="B26" s="226"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="237"/>
+      <c r="G26" s="240"/>
+      <c r="H26" s="239"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="235"/>
+      <c r="L26" s="205"/>
+    </row>
+    <row r="27" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="211">
+        <v>12</v>
+      </c>
+      <c r="B27" s="226"/>
+      <c r="C27" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="86" t="s">
+      <c r="F27" s="207" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="86" t="s">
+      <c r="G27" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="152" t="s">
+      <c r="H27" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" s="65"/>
-      <c r="L25" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v>Not Required</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44">
-        <v>11</v>
-      </c>
-      <c r="B26" s="172"/>
-      <c r="C26" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="141"/>
-      <c r="E26" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="153"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="65"/>
-      <c r="L26" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v>Not Required</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44">
-        <v>12</v>
-      </c>
-      <c r="B27" s="172"/>
-      <c r="C27" s="145" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="166" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="166" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="166" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="153"/>
       <c r="I27" s="10"/>
       <c r="J27" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="65"/>
-      <c r="L27" s="43" t="str">
+      <c r="K27" s="208"/>
+      <c r="L27" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44">
+    <row r="28" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="211">
         <v>13</v>
       </c>
-      <c r="B28" s="172"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="154"/>
+      <c r="B28" s="226"/>
+      <c r="C28" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="118"/>
+      <c r="E28" s="207" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="207" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="207" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="135"/>
       <c r="I28" s="10"/>
       <c r="J28" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="65"/>
-      <c r="L28" s="43" t="str">
+      <c r="K28" s="208"/>
+      <c r="L28" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44">
+    <row r="29" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="211">
         <v>14</v>
       </c>
-      <c r="B29" s="172"/>
-      <c r="C29" s="168" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="140" t="s">
+      <c r="B29" s="226"/>
+      <c r="C29" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="170" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="170" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="170" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="10"/>
+      <c r="E29" s="132" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="132" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="135"/>
+      <c r="I29" s="198"/>
       <c r="J29" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="67"/>
-      <c r="L29" s="43" t="str">
+      <c r="K29" s="208"/>
+      <c r="L29" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44">
+    <row r="30" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="211">
         <v>15</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="10"/>
+      <c r="B30" s="226"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="200"/>
       <c r="J30" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K30" s="67"/>
-      <c r="L30" s="43" t="str">
+      <c r="K30" s="208"/>
+      <c r="L30" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+    <row r="31" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="211">
         <v>16</v>
       </c>
-      <c r="B31" s="172"/>
-      <c r="C31" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="226"/>
+      <c r="C31" s="128" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" s="91" t="s">
+      <c r="E31" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="11"/>
+      <c r="I31" s="198"/>
       <c r="J31" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K31" s="67"/>
-      <c r="L31" s="43" t="str">
+      <c r="K31" s="204"/>
+      <c r="L31" s="205" t="str">
         <f t="shared" si="0"/>
         <v>Not Required</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44">
+    <row r="32" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="211">
         <v>17</v>
       </c>
-      <c r="B32" s="172"/>
-      <c r="C32" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="11"/>
+      <c r="B32" s="226"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="200"/>
       <c r="J32" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="67"/>
-      <c r="L32" s="43" t="e">
-        <f>IF(#REF!&lt;&gt;"",HYPERLINK("[Test Report Template Functionality.xlsx]Rework1!b9","Re-work Schedule"),HYPERLINK("", "Not Required" ))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44">
+      <c r="K32" s="204"/>
+      <c r="L32" s="205" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Required</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="211">
         <v>18</v>
       </c>
-      <c r="B33" s="164" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="39" t="s">
+      <c r="B33" s="226"/>
+      <c r="C33" s="206" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="99" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="E33" s="204" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="204" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="204" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="67"/>
-      <c r="L33" s="43"/>
-    </row>
-    <row r="34" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44">
+      <c r="I33" s="11"/>
+      <c r="J33" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="204"/>
+      <c r="L33" s="205" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Required</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="211">
         <v>19</v>
       </c>
-      <c r="B34" s="164"/>
-      <c r="C34" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="39" t="s">
+      <c r="B34" s="226"/>
+      <c r="C34" s="206" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="H34" s="91"/>
-      <c r="I34" s="11" t="s">
+      <c r="E34" s="204" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="204" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" s="204" t="s">
+        <v>197</v>
+      </c>
+      <c r="H34" s="84" t="s">
         <v>8</v>
       </c>
+      <c r="I34" s="11"/>
       <c r="J34" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K34" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="L34" s="43"/>
-    </row>
-    <row r="35" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93">
+      <c r="K34" s="204"/>
+      <c r="L34" s="205"/>
+    </row>
+    <row r="35" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="86">
         <v>20</v>
       </c>
-      <c r="B35" s="164"/>
-      <c r="C35" s="168" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="140" t="s">
+      <c r="B35" s="226"/>
+      <c r="C35" s="206" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="170" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" s="170" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" s="170" t="s">
+      <c r="E35" s="204" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="204" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="204" t="s">
+        <v>195</v>
+      </c>
+      <c r="H35" s="84" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K35" s="67"/>
-      <c r="L35" s="43"/>
-    </row>
-    <row r="36" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="93">
+      <c r="K35" s="204"/>
+      <c r="L35" s="205"/>
+    </row>
+    <row r="36" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="86">
         <v>21</v>
       </c>
-      <c r="B36" s="164"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
+      <c r="B36" s="227"/>
+      <c r="C36" s="206" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="203" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="204" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="204" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="204" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="84" t="s">
+        <v>8</v>
+      </c>
       <c r="I36" s="11"/>
       <c r="J36" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K36" s="67"/>
-      <c r="L36" s="43"/>
-    </row>
-    <row r="37" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="93">
+      <c r="K36" s="204"/>
+      <c r="L36" s="205" t="e">
+        <f>IF(#REF!&lt;&gt;"",HYPERLINK("[Test Report Template Functionality.xlsx]Rework1!b9","Re-work Schedule"),HYPERLINK("", "Not Required" ))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="86">
         <v>22</v>
       </c>
-      <c r="B37" s="164"/>
-      <c r="C37" s="168" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="140" t="s">
+      <c r="B37" s="215" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="170" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="170" t="s">
-        <v>117</v>
-      </c>
-      <c r="G37" s="170" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="102" t="s">
+      <c r="E37" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="11"/>
+      <c r="I37" s="244"/>
       <c r="J37" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K37" s="67"/>
-      <c r="L37" s="43"/>
-    </row>
-    <row r="38" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="93">
+      <c r="K37" s="204"/>
+      <c r="L37" s="205"/>
+    </row>
+    <row r="38" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="86">
         <v>23</v>
       </c>
-      <c r="B38" s="165"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="141"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="102" t="s">
+      <c r="B38" s="215"/>
+      <c r="C38" s="206" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="203" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="204" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="204" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="204" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" s="84"/>
+      <c r="I38" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="11"/>
       <c r="J38" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K38" s="67"/>
-      <c r="L38" s="43"/>
-    </row>
-    <row r="39" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
-      <c r="B39" s="179" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="168" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="140" t="s">
+      <c r="K38" s="204" t="s">
+        <v>170</v>
+      </c>
+      <c r="L38" s="205"/>
+    </row>
+    <row r="39" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="86"/>
+      <c r="B39" s="215"/>
+      <c r="C39" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="170" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="180" t="s">
-        <v>124</v>
-      </c>
-      <c r="G39" s="181" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="182" t="s">
+      <c r="E39" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="96"/>
-      <c r="J39" s="174" t="s">
+      <c r="I39" s="201"/>
+      <c r="J39" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K39" s="94"/>
-      <c r="L39" s="97"/>
-    </row>
-    <row r="40" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="93"/>
-      <c r="B40" s="164"/>
-      <c r="C40" s="177"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="176"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="178"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="175"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="97"/>
-    </row>
-    <row r="41" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="93"/>
-      <c r="B41" s="164" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="177" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="140" t="s">
+      <c r="K39" s="204"/>
+      <c r="L39" s="205"/>
+    </row>
+    <row r="40" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="86"/>
+      <c r="B40" s="215"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="202"/>
+      <c r="J40" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" s="204"/>
+      <c r="L40" s="205"/>
+    </row>
+    <row r="41" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="86"/>
+      <c r="B41" s="215"/>
+      <c r="C41" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="170" t="s">
-        <v>123</v>
-      </c>
-      <c r="F41" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="G41" s="178" t="s">
-        <v>129</v>
-      </c>
-      <c r="H41" s="173" t="s">
+      <c r="E41" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="96"/>
-      <c r="J41" s="174" t="s">
+      <c r="I41" s="201"/>
+      <c r="J41" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="94"/>
-      <c r="L41" s="97"/>
-    </row>
-    <row r="42" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="93"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="176"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="178"/>
-      <c r="H42" s="173"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="175"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="97"/>
-    </row>
-    <row r="43" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="93"/>
-      <c r="B43" s="164" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="177" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="84" t="s">
+      <c r="K41" s="204"/>
+      <c r="L41" s="205"/>
+    </row>
+    <row r="42" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="86"/>
+      <c r="B42" s="215"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="202"/>
+      <c r="J42" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="204"/>
+      <c r="L42" s="205"/>
+    </row>
+    <row r="43" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="86"/>
+      <c r="B43" s="215" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="176" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="155" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="178" t="s">
-        <v>133</v>
-      </c>
-      <c r="H43" s="90" t="s">
+      <c r="E43" s="108" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="96"/>
+      <c r="I43" s="88"/>
       <c r="J43" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="94"/>
-      <c r="L43" s="97"/>
-    </row>
-    <row r="44" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="93"/>
-      <c r="B44" s="164"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="84" t="s">
+      <c r="K43" s="87"/>
+      <c r="L43" s="89"/>
+    </row>
+    <row r="44" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="86"/>
+      <c r="B44" s="215"/>
+      <c r="C44" s="128" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="176"/>
-      <c r="F44" s="155"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="90" t="s">
+      <c r="E44" s="119" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="130" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="96"/>
-      <c r="J44" s="37" t="s">
+      <c r="I44" s="88"/>
+      <c r="J44" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="94"/>
-      <c r="L44" s="97"/>
-    </row>
-    <row r="45" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="93"/>
-      <c r="B45" s="164"/>
-      <c r="C45" s="101" t="s">
+      <c r="K44" s="87"/>
+      <c r="L44" s="89"/>
+    </row>
+    <row r="45" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="86"/>
+      <c r="B45" s="215"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="126"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="123"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="89"/>
+    </row>
+    <row r="46" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="86"/>
+      <c r="B46" s="215" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="126" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="127" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="H46" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="217"/>
+      <c r="J46" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="87"/>
+      <c r="L46" s="89"/>
+    </row>
+    <row r="47" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="86"/>
+      <c r="B47" s="215"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="217"/>
+      <c r="J47" s="123"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="89"/>
+    </row>
+    <row r="48" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="86"/>
+      <c r="B48" s="215"/>
+      <c r="C48" s="125" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="119" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="126" t="s">
+        <v>186</v>
+      </c>
+      <c r="G48" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="88"/>
+      <c r="J48" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="87"/>
+      <c r="L48" s="89"/>
+    </row>
+    <row r="49" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="86"/>
+      <c r="B49" s="215"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="127"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="89"/>
+    </row>
+    <row r="50" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="86"/>
+      <c r="B50" s="215"/>
+      <c r="C50" s="125" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="119" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="126" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="127" t="s">
+        <v>128</v>
+      </c>
+      <c r="H50" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="88"/>
+      <c r="J50" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="K50" s="87"/>
+      <c r="L50" s="89"/>
+    </row>
+    <row r="51" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="86"/>
+      <c r="B51" s="215"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="126"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="123"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="89"/>
+    </row>
+    <row r="52" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="86"/>
+      <c r="B52" s="215" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="125" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="124" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="126" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="88"/>
+      <c r="J52" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="87"/>
+      <c r="L52" s="89"/>
+      <c r="O52" s="224"/>
+    </row>
+    <row r="53" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="86"/>
+      <c r="B53" s="215"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="88"/>
+      <c r="J53" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="87"/>
+      <c r="L53" s="89"/>
+    </row>
+    <row r="54" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="86"/>
+      <c r="B54" s="215"/>
+      <c r="C54" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="84" t="s">
+      <c r="F54" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="H54" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="88"/>
+      <c r="J54" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="87"/>
+      <c r="L54" s="89"/>
+    </row>
+    <row r="55" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="86"/>
+      <c r="B55" s="215"/>
+      <c r="C55" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="105" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="H45" s="103" t="s">
+      <c r="E55" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="H55" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="96"/>
-      <c r="J45" s="37" t="s">
+      <c r="I55" s="88"/>
+      <c r="J55" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="94"/>
-      <c r="L45" s="97"/>
-    </row>
-    <row r="46" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="93"/>
-      <c r="B46" s="164"/>
-      <c r="C46" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="84" t="s">
+      <c r="K55" s="87"/>
+      <c r="L55" s="89"/>
+    </row>
+    <row r="56" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="86"/>
+      <c r="B56" s="215"/>
+      <c r="C56" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="F46" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" s="106" t="s">
-        <v>142</v>
-      </c>
-      <c r="H46" s="106" t="s">
+      <c r="E56" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I46" s="96"/>
-      <c r="J46" s="37" t="s">
+      <c r="I56" s="88"/>
+      <c r="J56" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="94"/>
-      <c r="L46" s="97"/>
-    </row>
-    <row r="47" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="93"/>
-      <c r="B47" s="164"/>
-      <c r="C47" s="101" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="84" t="s">
+      <c r="K56" s="87"/>
+      <c r="L56" s="89"/>
+    </row>
+    <row r="57" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="215"/>
+      <c r="C57" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="F47" s="105" t="s">
-        <v>145</v>
-      </c>
-      <c r="G47" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="H47" s="107" t="s">
+      <c r="E57" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="G57" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="H57" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="96"/>
-      <c r="J47" s="37" t="s">
+      <c r="I57" s="88"/>
+      <c r="J57" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="94"/>
-      <c r="L47" s="97"/>
-    </row>
-    <row r="48" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="93"/>
-      <c r="B48" s="164"/>
-      <c r="C48" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="84" t="s">
+      <c r="K57" s="87"/>
+      <c r="L57" s="89"/>
+    </row>
+    <row r="58" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="98"/>
+      <c r="B58" s="215"/>
+      <c r="C58" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="105" t="s">
-        <v>149</v>
-      </c>
-      <c r="G48" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="H48" s="107" t="s">
+      <c r="E58" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" s="218" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="96"/>
-      <c r="J48" s="37" t="s">
+      <c r="I58" s="88"/>
+      <c r="J58" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="94"/>
-      <c r="L48" s="97"/>
-    </row>
-    <row r="49" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="93"/>
-      <c r="B49" s="164"/>
-      <c r="C49" s="101" t="s">
+      <c r="K58" s="87"/>
+      <c r="L58" s="89"/>
+    </row>
+    <row r="59" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="98"/>
+      <c r="B59" s="215"/>
+      <c r="C59" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="219" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="220" t="s">
         <v>151</v>
       </c>
-      <c r="D49" s="84" t="s">
+      <c r="F59" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="G59" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="H59" s="111"/>
+      <c r="I59" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="L59" s="89"/>
+    </row>
+    <row r="60" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="98"/>
+      <c r="B60" s="216" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="106" t="s">
-        <v>155</v>
-      </c>
-      <c r="F49" s="106" t="s">
-        <v>156</v>
-      </c>
-      <c r="G49" s="106" t="s">
-        <v>157</v>
-      </c>
-      <c r="H49" s="107" t="s">
+      <c r="E60" s="221" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="H60" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="96"/>
-      <c r="J49" s="37" t="s">
+      <c r="I60" s="88"/>
+      <c r="J60" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="94"/>
-      <c r="L49" s="97"/>
-    </row>
-    <row r="50" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="93"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="101" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" s="84" t="s">
+      <c r="K60" s="87"/>
+      <c r="L60" s="89"/>
+    </row>
+    <row r="61" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="98"/>
+      <c r="B61" s="216"/>
+      <c r="C61" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="106" t="s">
-        <v>152</v>
-      </c>
-      <c r="F50" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="G50" s="106" t="s">
-        <v>158</v>
-      </c>
-      <c r="H50"/>
-      <c r="I50" s="96" t="s">
+      <c r="E61" s="223" t="s">
+        <v>163</v>
+      </c>
+      <c r="F61" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="G61" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="H61" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="37" t="s">
+      <c r="I61" s="88"/>
+      <c r="J61" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K50" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="L50" s="97"/>
-    </row>
-    <row r="51" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="93"/>
-      <c r="B51" s="198" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" s="195" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="F51" s="106" t="s">
-        <v>165</v>
-      </c>
-      <c r="G51" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="H51" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="96"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="97"/>
-    </row>
-    <row r="52" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="93"/>
-      <c r="B52" s="198"/>
-      <c r="C52" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52" s="195" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="F52" s="106" t="s">
-        <v>168</v>
-      </c>
-      <c r="G52" s="106" t="s">
-        <v>169</v>
-      </c>
-      <c r="H52" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="96"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="97"/>
-    </row>
-    <row r="53" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="93"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="37" t="s">
+      <c r="K61" s="87"/>
+      <c r="L61" s="89"/>
+    </row>
+    <row r="62" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="98"/>
+      <c r="B62" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="K53" s="94"/>
-      <c r="L53" s="97"/>
-    </row>
-    <row r="54" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="130" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="131"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="126" t="s">
+      <c r="C62" s="197"/>
+      <c r="D62" s="197"/>
+      <c r="E62" s="197"/>
+      <c r="F62" s="197"/>
+      <c r="G62" s="197"/>
+      <c r="H62" s="197"/>
+      <c r="I62" s="197"/>
+      <c r="J62" s="197"/>
+      <c r="K62" s="197"/>
+      <c r="L62" s="197"/>
+    </row>
+    <row r="63" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="98"/>
+      <c r="B63" s="197"/>
+      <c r="C63" s="197"/>
+      <c r="D63" s="197"/>
+      <c r="E63" s="197"/>
+      <c r="F63" s="197"/>
+      <c r="G63" s="197"/>
+      <c r="H63" s="197"/>
+      <c r="I63" s="197"/>
+      <c r="J63" s="197"/>
+      <c r="K63" s="197"/>
+      <c r="L63" s="197"/>
+    </row>
+    <row r="64" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="101"/>
+      <c r="B64" s="197"/>
+      <c r="C64" s="197"/>
+      <c r="D64" s="197"/>
+      <c r="E64" s="197"/>
+      <c r="F64" s="197"/>
+      <c r="G64" s="197"/>
+      <c r="H64" s="197"/>
+      <c r="I64" s="197"/>
+      <c r="J64" s="197"/>
+      <c r="K64" s="197"/>
+      <c r="L64" s="197"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="99"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="G54" s="131"/>
-      <c r="H54" s="131"/>
-      <c r="I54" s="131"/>
-      <c r="J54" s="132"/>
-      <c r="K54" s="126" t="s">
+      <c r="G65" s="162"/>
+      <c r="H65" s="162"/>
+      <c r="I65" s="162"/>
+      <c r="J65" s="163"/>
+      <c r="K65" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="L54" s="127"/>
-    </row>
-    <row r="55" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="130"/>
-      <c r="B55" s="131"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="131"/>
-      <c r="H55" s="131"/>
-      <c r="I55" s="131"/>
-      <c r="J55" s="132"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="127"/>
-    </row>
-    <row r="56" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="130"/>
-      <c r="B56" s="131"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="131"/>
-      <c r="H56" s="131"/>
-      <c r="I56" s="131"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="127"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="130"/>
-      <c r="B57" s="131"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="126"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="131"/>
-      <c r="I57" s="131"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="126"/>
-      <c r="L57" s="127"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="130"/>
-      <c r="B58" s="131"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="131"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="131"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="127"/>
-    </row>
-    <row r="59" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="130"/>
-      <c r="B59" s="131"/>
-      <c r="C59" s="131"/>
-      <c r="D59" s="132"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="131"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="131"/>
-      <c r="J59" s="132"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="127"/>
-    </row>
-    <row r="60" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="130"/>
-      <c r="B60" s="131"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="132"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="131"/>
-      <c r="H60" s="131"/>
-      <c r="I60" s="131"/>
-      <c r="J60" s="132"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="127"/>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="133"/>
-      <c r="B61" s="134"/>
-      <c r="C61" s="134"/>
-      <c r="D61" s="135"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="128"/>
-      <c r="G61" s="134"/>
-      <c r="H61" s="134"/>
-      <c r="I61" s="134"/>
-      <c r="J61" s="135"/>
-      <c r="K61" s="128"/>
-      <c r="L61" s="129"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="47"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="81"/>
-      <c r="L62" s="49"/>
-    </row>
-    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="45" t="s">
+      <c r="L65" s="158"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="72"/>
-      <c r="F63" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="47"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="49"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="45" t="s">
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="100"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="157"/>
+      <c r="G66" s="162"/>
+      <c r="H66" s="162"/>
+      <c r="I66" s="162"/>
+      <c r="J66" s="163"/>
+      <c r="K66" s="157"/>
+      <c r="L66" s="158"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="47"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="81"/>
-      <c r="L64" s="49"/>
-    </row>
-    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="45" t="s">
+      <c r="B67" s="99"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="100"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="162"/>
+      <c r="H67" s="162"/>
+      <c r="I67" s="162"/>
+      <c r="J67" s="163"/>
+      <c r="K67" s="157"/>
+      <c r="L67" s="158"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="47"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="81"/>
-      <c r="L65" s="49"/>
-    </row>
-    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="47"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="81"/>
-      <c r="L66" s="49"/>
-    </row>
-    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="47"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="81"/>
-      <c r="L67" s="49"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" s="47"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="81"/>
-      <c r="L68" s="49"/>
-    </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="157"/>
+      <c r="G68" s="162"/>
+      <c r="H68" s="162"/>
+      <c r="I68" s="162"/>
+      <c r="J68" s="163"/>
+      <c r="K68" s="157"/>
+      <c r="L68" s="158"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="45"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="47"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="49"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="157"/>
+      <c r="G69" s="162"/>
+      <c r="H69" s="162"/>
+      <c r="I69" s="162"/>
+      <c r="J69" s="163"/>
+      <c r="K69" s="157"/>
+      <c r="L69" s="158"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="45"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="46"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="74" t="s">
+      <c r="B70" s="99"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="157"/>
+      <c r="G70" s="162"/>
+      <c r="H70" s="162"/>
+      <c r="I70" s="162"/>
+      <c r="J70" s="163"/>
+      <c r="K70" s="157"/>
+      <c r="L70" s="158"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="45"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="157"/>
+      <c r="G71" s="162"/>
+      <c r="H71" s="162"/>
+      <c r="I71" s="162"/>
+      <c r="J71" s="163"/>
+      <c r="K71" s="157"/>
+      <c r="L71" s="158"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="45"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="159"/>
+      <c r="G72" s="165"/>
+      <c r="H72" s="165"/>
+      <c r="I72" s="165"/>
+      <c r="J72" s="166"/>
+      <c r="K72" s="159"/>
+      <c r="L72" s="160"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="45"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="47"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="49"/>
+    </row>
+    <row r="74" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="51"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="70"/>
+      <c r="F74" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="47"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="49"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="47"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="49"/>
+    </row>
+    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="47"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="49"/>
+    </row>
+    <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="47"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="49"/>
+    </row>
+    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="47"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="79"/>
+      <c r="L78" s="49"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="47"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="79"/>
+      <c r="L79" s="49"/>
+    </row>
+    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="47"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="79"/>
+      <c r="L80" s="49"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="H70" s="47"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="81"/>
-      <c r="L70" s="49"/>
-    </row>
-    <row r="71" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="51"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="78" t="s">
+      <c r="H81" s="47"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="79"/>
+      <c r="L81" s="49"/>
+    </row>
+    <row r="82" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="54"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="55"/>
-      <c r="K71" s="82"/>
-      <c r="L71" s="56"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="80"/>
+      <c r="L82" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
+  <mergeCells count="137">
+    <mergeCell ref="K25:K26"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B25:B36"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="B62:L64"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D7:L7"/>
     <mergeCell ref="D5:L5"/>
-    <mergeCell ref="K54:L61"/>
+    <mergeCell ref="K65:L72"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A54:D61"/>
-    <mergeCell ref="F54:J61"/>
+    <mergeCell ref="F65:J72"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
@@ -6035,202 +6687,353 @@
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="H20:H22"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B52:B59"/>
   </mergeCells>
-  <conditionalFormatting sqref="J9:J11 J17 J20 J14 J22:J32 J35:J39 J41 J43:J53">
-    <cfRule type="cellIs" dxfId="67" priority="40" operator="equal">
+  <conditionalFormatting sqref="J9:J11 J17 J20 J14 J50 J39:J44 J52:J61 B62 J22:J25 J27:J36">
+    <cfRule type="cellIs" dxfId="90" priority="66" operator="equal">
       <formula>"Select Priority"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="44" operator="containsText" text="Moderate">
-      <formula>NOT(ISERROR(SEARCH("Moderate",J9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="47" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",J9)))</formula>
+    <cfRule type="containsText" dxfId="89" priority="70" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="73" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J11 J17 J20 J14 J22:J32 J35:J39 J41 J43:J53">
-    <cfRule type="containsText" dxfId="64" priority="45" operator="containsText" text="Moderate">
-      <formula>NOT(ISERROR(SEARCH("Moderate",J9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="46" operator="containsText" text="Moderate">
-      <formula>NOT(ISERROR(SEARCH("Moderate",J9)))</formula>
+  <conditionalFormatting sqref="J9:J11 J17 J20 J14 J50 J39:J44 J52:J61 B62 J22:J25 J27:J36">
+    <cfRule type="containsText" dxfId="87" priority="71" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="72" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:L33 L53">
-    <cfRule type="cellIs" dxfId="62" priority="42" operator="equal">
+  <conditionalFormatting sqref="L42:L47 L50:L61 L9:L37">
+    <cfRule type="cellIs" dxfId="85" priority="68" operator="equal">
       <formula>"Re-work Schedule"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="69" operator="equal">
       <formula>"Re-work Schedule"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D11 D20 D14:D15 D22:D23 D29 D31">
-    <cfRule type="cellIs" dxfId="60" priority="41" operator="equal">
+  <conditionalFormatting sqref="D9:D11 D20 D14:D15 D22:D23 D31 D33:D35">
+    <cfRule type="cellIs" dxfId="83" priority="67" operator="equal">
       <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="82" priority="63" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="81" priority="64" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="80" priority="38" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="79" priority="62" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="cellIs" dxfId="78" priority="54" operator="equal">
+      <formula>"Select Priority"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="58" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="61" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",J50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="containsText" dxfId="75" priority="59" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="60" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:J41">
+    <cfRule type="cellIs" dxfId="73" priority="46" operator="equal">
+      <formula>"Select Priority"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="50" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="53" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",J39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:J41">
+    <cfRule type="containsText" dxfId="70" priority="51" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="52" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38:L41">
+    <cfRule type="cellIs" dxfId="68" priority="48" operator="equal">
+      <formula>"Re-work Schedule"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="49" operator="equal">
+      <formula>"Re-work Schedule"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="66" priority="45" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="65" priority="44" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="cellIs" dxfId="64" priority="37" operator="equal">
+      <formula>"Select Priority"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="39" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="42" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",J38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="containsText" dxfId="61" priority="40" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="41" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="59" priority="36" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="cellIs" dxfId="58" priority="35" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44 D50 D52">
+    <cfRule type="cellIs" dxfId="57" priority="34" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="cellIs" dxfId="56" priority="33" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="55" priority="32" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="54" priority="28" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:D61">
+    <cfRule type="cellIs" dxfId="53" priority="27" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="52" priority="26" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
+      <formula>"Select Priority"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="22" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="25" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",J48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="containsText" dxfId="48" priority="23" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="24" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48:L49">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
+      <formula>"Re-work Schedule"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
+      <formula>"Re-work Schedule"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
+      <formula>"Select Priority"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="18" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",J48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="containsText" dxfId="41" priority="16" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="17" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
+      <formula>"Select Method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+      <formula>"Select Priority"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="8" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",J46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="10" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+      <formula>"Select Priority"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",J37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="59" priority="37" operator="equal">
-      <formula>"Select Method"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="58" priority="38" operator="equal">
-      <formula>"Select Method"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="57" priority="12" operator="equal">
-      <formula>"Select Method"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="56" priority="36" operator="equal">
-      <formula>"Select Method"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:J39 J41 J43:J53">
-    <cfRule type="cellIs" dxfId="55" priority="28" operator="equal">
-      <formula>"Select Priority"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="32" operator="containsText" text="Moderate">
-      <formula>NOT(ISERROR(SEARCH("Moderate",J38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="35" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",J38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:J39 J41 J43:J53">
-    <cfRule type="containsText" dxfId="52" priority="33" operator="containsText" text="Moderate">
-      <formula>NOT(ISERROR(SEARCH("Moderate",J38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="34" operator="containsText" text="Moderate">
-      <formula>NOT(ISERROR(SEARCH("Moderate",J38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L38:L52">
-    <cfRule type="cellIs" dxfId="50" priority="30" operator="equal">
-      <formula>"Re-work Schedule"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="31" operator="equal">
-      <formula>"Re-work Schedule"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:J37">
-    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
-      <formula>"Select Priority"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="24" operator="containsText" text="Moderate">
-      <formula>NOT(ISERROR(SEARCH("Moderate",J35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="27" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",J35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:J37">
-    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="Moderate">
-      <formula>NOT(ISERROR(SEARCH("Moderate",J35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="26" operator="containsText" text="Moderate">
-      <formula>NOT(ISERROR(SEARCH("Moderate",J35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34:L37">
-    <cfRule type="cellIs" dxfId="43" priority="22" operator="equal">
-      <formula>"Re-work Schedule"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="23" operator="equal">
-      <formula>"Re-work Schedule"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
-      <formula>"Select Method"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
-      <formula>"Select Method"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
-      <formula>"Select Priority"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="Moderate">
-      <formula>NOT(ISERROR(SEARCH("Moderate",J34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="16" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",J34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="36" priority="14" operator="containsText" text="Moderate">
-      <formula>NOT(ISERROR(SEARCH("Moderate",J34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="Moderate">
-      <formula>NOT(ISERROR(SEARCH("Moderate",J34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
-      <formula>"Select Method"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
-      <formula>"Select Method"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39 D41 D43">
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
-      <formula>"Select Method"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
-      <formula>"Select Method"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
-      <formula>"Select Method"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
-      <formula>"Select Method"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
-      <formula>"Select Method"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D52">
     <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Select Method"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H11 H14 H17 H20 H25 H53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H11 H14 H17 H20 H27">
       <formula1>yes2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D11 D14:D15 D17 D20 D22:D23 D25 D27 D29 D31:D35 D37 D39 D41 D43:D52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D11 D14:D15 D17 D20 D22:D23 D27 D29 D31 D41 D43:D44 D50 D48 D52 D46 D54:D61 D33:D39 D25">
       <formula1>testing</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14 J17 J20 J9:J11 J22:J32 J34:J39 J41 J43:J53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14 J17 J20 J9:J11 J50 J46 J48 B62 J52:J61 J22:J25 J27:J44">
       <formula1>CRITICALITY</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I32 I34:I53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48:I61 I9:I11 I14:I15 I17 I20 I22:I23 I27:I29 I31 I38:I39 I41 I43:I45 I33:I36">
       <formula1>nono</formula1>
     </dataValidation>
   </dataValidations>
@@ -6268,138 +7071,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
       <c r="E1" s="59"/>
-      <c r="F1" s="190" t="s">
+      <c r="F1" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="188" t="s">
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="189"/>
+      <c r="L1" s="186"/>
     </row>
     <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="196">
+      <c r="B2" s="189"/>
+      <c r="C2" s="112">
         <v>46545</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="191" t="s">
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="193" t="s">
+      <c r="L2" s="192" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="188" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="184"/>
+      <c r="B3" s="189"/>
       <c r="C3" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="177"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="193"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="189"/>
+      <c r="C4" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="156"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="189"/>
+      <c r="C5" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="194"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="118"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="183" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="156"/>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="184"/>
+      <c r="B6" s="189"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="156"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="184"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="61"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="156"/>
     </row>
     <row r="8" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="186"/>
+      <c r="B8" s="195"/>
       <c r="C8" s="34" t="s">
         <v>25</v>
       </c>
@@ -6436,31 +7239,31 @@
         <v>1</v>
       </c>
       <c r="B9" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="84" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="106" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" s="104" t="s">
+      <c r="H9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="96"/>
+      <c r="I9" s="88"/>
       <c r="J9" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="94"/>
+      <c r="K9" s="87"/>
       <c r="L9" s="42" t="str">
         <f>IF(I9&lt;&gt;"",HYPERLINK("[Test Report Template Functionality.xlsx]Rework2!b9","Re-work Schedule"),HYPERLINK("", "Not Required" ))</f>
         <v>Not Required</v>
@@ -6472,22 +7275,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>172</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>173</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>174</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>175</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="35"/>
@@ -6870,122 +7673,122 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="130" t="s">
+      <c r="A27" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="132"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="163"/>
       <c r="E27" s="57"/>
-      <c r="F27" s="126" t="s">
+      <c r="F27" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="126" t="s">
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="127"/>
+      <c r="L27" s="158"/>
     </row>
     <row r="28" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="130"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="132"/>
+      <c r="A28" s="161"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="163"/>
       <c r="E28" s="57"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="127"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="158"/>
     </row>
     <row r="29" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="130"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="132"/>
+      <c r="A29" s="161"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="163"/>
       <c r="E29" s="57"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="127"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="158"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="130"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="132"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="163"/>
       <c r="E30" s="57"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="127"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="158"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="130"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="132"/>
+      <c r="A31" s="161"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="163"/>
       <c r="E31" s="57"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="127"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="158"/>
     </row>
     <row r="32" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="130"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="132"/>
+      <c r="A32" s="161"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="163"/>
       <c r="E32" s="57"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="127"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="158"/>
     </row>
     <row r="33" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="130"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="132"/>
+      <c r="A33" s="161"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="57"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="127"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="158"/>
     </row>
     <row r="34" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="133"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="135"/>
+      <c r="A34" s="164"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="166"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="135"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="129"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="166"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="160"/>
     </row>
     <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
@@ -7122,6 +7925,18 @@
     <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A27:D34"/>
+    <mergeCell ref="F27:J34"/>
+    <mergeCell ref="K27:L34"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:L6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="F1:J1"/>
@@ -7131,18 +7946,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A27:D34"/>
-    <mergeCell ref="F27:J34"/>
-    <mergeCell ref="K27:L34"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:J26">
     <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
@@ -7273,130 +8076,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
       <c r="E1" s="59"/>
-      <c r="F1" s="190" t="s">
+      <c r="F1" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="188" t="s">
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="189"/>
+      <c r="L1" s="186"/>
     </row>
     <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="184"/>
+      <c r="B2" s="189"/>
       <c r="C2" s="61"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="191" t="s">
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="193" t="s">
+      <c r="L2" s="192" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="188" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="184"/>
+      <c r="B3" s="189"/>
       <c r="C3" s="64"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="194"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="193"/>
     </row>
     <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="184"/>
+      <c r="B4" s="189"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="118"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="156"/>
     </row>
     <row r="5" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="184"/>
+      <c r="B5" s="189"/>
       <c r="C5" s="61"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="156"/>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="184"/>
+      <c r="B6" s="189"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="156"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="184"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="61"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="156"/>
     </row>
     <row r="8" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="186"/>
+      <c r="B8" s="195"/>
       <c r="C8" s="62" t="s">
         <v>47</v>
       </c>
@@ -7791,122 +8594,122 @@
       <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="130" t="s">
+      <c r="A27" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="132"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="163"/>
       <c r="E27" s="57"/>
-      <c r="F27" s="126" t="s">
+      <c r="F27" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="126" t="s">
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="127"/>
+      <c r="L27" s="158"/>
     </row>
     <row r="28" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="130"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="132"/>
+      <c r="A28" s="161"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="163"/>
       <c r="E28" s="57"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="127"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="158"/>
     </row>
     <row r="29" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="130"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="132"/>
+      <c r="A29" s="161"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="163"/>
       <c r="E29" s="57"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="127"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="158"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="130"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="132"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="163"/>
       <c r="E30" s="57"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="127"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="158"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="130"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="132"/>
+      <c r="A31" s="161"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="163"/>
       <c r="E31" s="57"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="127"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="158"/>
     </row>
     <row r="32" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="130"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="132"/>
+      <c r="A32" s="161"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="163"/>
       <c r="E32" s="57"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="127"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="158"/>
     </row>
     <row r="33" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="130"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="132"/>
+      <c r="A33" s="161"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="57"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="127"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="158"/>
     </row>
     <row r="34" spans="1:12" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="133"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="135"/>
+      <c r="A34" s="164"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="166"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="135"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="129"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="166"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="160"/>
     </row>
     <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
@@ -8043,6 +8846,18 @@
     <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A27:D34"/>
+    <mergeCell ref="F27:J34"/>
+    <mergeCell ref="K27:L34"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:L6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:L1"/>
@@ -8052,18 +8867,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A27:D34"/>
-    <mergeCell ref="F27:J34"/>
-    <mergeCell ref="K27:L34"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J26">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
